--- a/biology/Botanique/Terminalia_chebula/Terminalia_chebula.xlsx
+++ b/biology/Botanique/Terminalia_chebula/Terminalia_chebula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Terminalia chebula (le myrobolan noir ou myrobolanier), tibétain : ཨ་རུ་ར, Wylie : a ru ra, THL : arura, est une espèce d'arbres de la famille des Combretaceae. Le fruit de l'arbre s'appelle myrobolan chébule, avant maturité, ou myrobolan indien ou indique. Les graines sont appelées graines d'harad.
 Les graines d'harad entrent dans la fabrication du sel noir, un type de sel gemme utilisé couramment en Asie du Sud comme condiment salé à l'odeur forte.
 L’acide lutéique est un acide organique présent dans des ellagitanins, un type de tanins hydrolysables. C'est un produit naturel que l'on trouve dans des fruits de T. chebula. L'espèce contient aussi de l'acide chébulique.
-Utilisé dans la médecine tibétaine, l'arura est l'emblème du bouddha de médecine[1]. 
+Utilisé dans la médecine tibétaine, l'arura est l'emblème du bouddha de médecine. 
 </t>
         </is>
       </c>
